--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t xml:space="preserve">Event</t>
   </si>
@@ -49,13 +49,13 @@
     <t xml:space="preserve">Lecture</t>
   </si>
   <si>
-    <t xml:space="preserve">saturday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23:59</t>
+    <t xml:space="preserve">sunday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:36 AM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:59 AM</t>
   </si>
   <si>
     <t xml:space="preserve">virtual</t>
@@ -70,10 +70,10 @@
     <t xml:space="preserve">thursday</t>
   </si>
   <si>
-    <t xml:space="preserve">18:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19:00</t>
+    <t xml:space="preserve">6:31 PM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:00 PM</t>
   </si>
   <si>
     <t xml:space="preserve">ELEC 2110</t>
@@ -82,16 +82,16 @@
     <t xml:space="preserve">tuesday, thursday</t>
   </si>
   <si>
-    <t xml:space="preserve">18:32</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bala Balasingam</t>
   </si>
   <si>
+    <t xml:space="preserve">6:45 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENG 2320</t>
   </si>
   <si>
-    <t xml:space="preserve">18:22</t>
+    <t xml:space="preserve">6:41 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Mohammed Khalid</t>
@@ -100,25 +100,31 @@
     <t xml:space="preserve">wednesday</t>
   </si>
   <si>
+    <t xml:space="preserve">6:51 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">GENG 2340</t>
   </si>
   <si>
     <t xml:space="preserve">monday, wednesday</t>
   </si>
   <si>
-    <t xml:space="preserve">18:23</t>
+    <t xml:space="preserve">6:47 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Arezoo Emadi</t>
   </si>
   <si>
+    <t xml:space="preserve">6:43 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHYS 2200</t>
   </si>
   <si>
     <t xml:space="preserve">monday, wednesday, friday</t>
   </si>
   <si>
-    <t xml:space="preserve">18:24</t>
+    <t xml:space="preserve">6:34 PM</t>
   </si>
   <si>
     <t xml:space="preserve">virtual </t>
@@ -130,13 +136,13 @@
     <t xml:space="preserve">monday</t>
   </si>
   <si>
+    <t xml:space="preserve">6:49 PM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transfrom</t>
   </si>
   <si>
     <t xml:space="preserve">friday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18:25</t>
   </si>
   <si>
     <t xml:space="preserve">Transform Team</t>
@@ -249,10 +255,10 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
@@ -329,7 +335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -340,7 +346,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -349,10 +355,10 @@
         <v>12</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -363,19 +369,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -386,10 +392,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
@@ -398,7 +404,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -409,10 +415,10 @@
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
@@ -421,32 +427,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -455,85 +461,85 @@
         <v>25</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
